--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-semi-perennial-crops-A-P.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-semi-perennial-crops-A-P.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389116AE-73AA-4BE1-BDC9-20CD04ED12B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526D2F1D-288E-4811-9A8F-6C0EA0D6D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82485" yWindow="375" windowWidth="31200" windowHeight="21360" activeTab="6" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="76890" yWindow="1905" windowWidth="36870" windowHeight="21360" activeTab="2" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="33">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -139,13 +139,17 @@
   <si>
     <t>В некоторые годы экспорт превышает национальное производство, что абсурдно, поскольку в случае со скоропортящимся продуктом не может быть остатков предыдущего урожая.</t>
   </si>
+  <si>
+    <t>значение восстановлено из среднего</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -164,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -207,9 +217,12 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +582,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2213,11 +2226,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67143A1B-4833-4978-A055-0B5344FBBD30}">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2234,10 +2247,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2664,7 +2677,7 @@
         <v>14366</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -2687,9 +2700,14 @@
         <f t="shared" si="0"/>
         <v>-6.8399999998509884</v>
       </c>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q17" s="15">
+        <v>20415</v>
+      </c>
+      <c r="S17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -2716,7 +2734,7 @@
         <v>26587</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -2743,7 +2761,7 @@
         <v>23175</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -2770,7 +2788,7 @@
         <v>17514</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -2800,8 +2818,9 @@
       <c r="Q21" s="3">
         <v>20411</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -2828,7 +2847,7 @@
         <v>23401</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -2855,7 +2874,7 @@
         <v>25423</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -2882,7 +2901,7 @@
         <v>36193</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -2909,7 +2928,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -2936,7 +2955,7 @@
         <v>51921</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -2967,7 +2986,7 @@
         <v>36385</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -2994,7 +3013,7 @@
         <v>48103</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3021,7 +3040,7 @@
         <v>34319</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -3048,7 +3067,7 @@
         <v>36699</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -3075,7 +3094,7 @@
         <v>31495</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -4249,10 +4268,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -6384,10 +6403,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -8143,10 +8162,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -10579,11 +10598,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E2A824-58FD-4786-8779-C6BB27A281BC}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10599,10 +10618,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -11619,8 +11638,8 @@
       <c r="I31" s="3">
         <v>85676</v>
       </c>
-      <c r="J31" s="6">
-        <v>4.0549999999999997</v>
+      <c r="J31" s="13">
+        <v>3.5510000000000002</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="0"/>
@@ -11665,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -11701,8 +11720,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="12"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -11736,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -11770,7 +11793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -11804,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -11838,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -11872,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -11909,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -11943,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -11977,7 +12000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -12011,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -12045,7 +12068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -12081,7 +12104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -12120,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -12156,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -12192,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -13026,8 +13049,8 @@
       <c r="I71" s="3">
         <v>423482</v>
       </c>
-      <c r="J71" s="6">
-        <v>3.9460000000000002</v>
+      <c r="J71" s="13">
+        <v>5.9459999999999997</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="2"/>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-semi-perennial-crops-A-P.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-semi-perennial-crops-A-P.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526D2F1D-288E-4811-9A8F-6C0EA0D6D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48AD063-8E68-4E2F-9588-9CAF866E33FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76890" yWindow="1905" windowWidth="36870" windowHeight="21360" activeTab="2" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="83280" yWindow="1185" windowWidth="24690" windowHeight="21105" activeTab="5" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="34">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -142,6 +142,9 @@
   <si>
     <t>значение восстановлено из среднего</t>
   </si>
+  <si>
+    <t>Для этих лет, помеченных синим цветом, мы устанавливаем потребдение в 20% производства.</t>
+  </si>
 </sst>
 </file>
 
@@ -219,10 +222,10 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +585,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2228,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67143A1B-4833-4978-A055-0B5344FBBD30}">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
@@ -2247,10 +2250,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2700,7 +2703,7 @@
         <f t="shared" si="0"/>
         <v>-6.8399999998509884</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="14">
         <v>20415</v>
       </c>
       <c r="S17" t="s">
@@ -4268,10 +4271,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -6403,10 +6406,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -8142,11 +8145,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF41E12-4CC3-430E-8491-584B7EF3E26C}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8162,10 +8165,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -9199,7 +9202,10 @@
         <v>3146</v>
       </c>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="14">
+        <f>D32*0.2</f>
+        <v>321.60000000000002</v>
+      </c>
       <c r="J32" s="6"/>
       <c r="M32" s="2">
         <f t="shared" si="0"/>
@@ -9207,7 +9213,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>-1538</v>
+        <v>-1859.6</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -9300,7 +9306,10 @@
         <v>2752</v>
       </c>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="14">
+        <f>D35*0.2</f>
+        <v>470.8</v>
+      </c>
       <c r="J35" s="6"/>
       <c r="M35" s="2">
         <f t="shared" si="0"/>
@@ -9308,7 +9317,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>-398</v>
+        <v>-868.8</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -9330,7 +9339,10 @@
         <v>2790</v>
       </c>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="14">
+        <f>D36*0.2</f>
+        <v>482.6</v>
+      </c>
       <c r="J36" s="6"/>
       <c r="M36" s="2">
         <f t="shared" si="0"/>
@@ -9338,7 +9350,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>-377</v>
+        <v>-859.6</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -9394,7 +9406,10 @@
         <v>4433</v>
       </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="14">
+        <f>D38*0.2</f>
+        <v>641.80000000000007</v>
+      </c>
       <c r="J38" s="6"/>
       <c r="M38" s="2">
         <f t="shared" si="0"/>
@@ -9402,7 +9417,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>-1224</v>
+        <v>-1865.8000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -9457,7 +9472,10 @@
         <v>6097</v>
       </c>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="14">
+        <f>D40*0.2</f>
+        <v>908.2</v>
+      </c>
       <c r="J40" s="6"/>
       <c r="M40" s="2">
         <f t="shared" si="0"/>
@@ -9465,7 +9483,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>-1556</v>
+        <v>-2464.1999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -10586,6 +10604,11 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -10618,10 +10641,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
